--- a/Trabajo de graduación/Tablas/Tablas.xlsx
+++ b/Trabajo de graduación/Tablas/Tablas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\PES\Para la tesis\Tesis\Pass through\Trabajo de graduación\Tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54ABF94-E217-4C71-A60F-4C0A182F0BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC937A9-4183-4406-8473-2BACBBAA0FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF951696-837C-4D09-81A9-6DFEDF2BBBF6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Esquema de política monetaria</t>
   </si>
@@ -56,6 +56,21 @@
   </si>
   <si>
     <t>Cálculos realizados en el archivo de R "Gráficas"</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Coeficiente</t>
+  </si>
+  <si>
+    <t>Error estándar</t>
+  </si>
+  <si>
+    <t>2.62x10^-7</t>
+  </si>
+  <si>
+    <t>3.02x10^-10</t>
   </si>
 </sst>
 </file>
@@ -130,18 +145,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -157,6 +189,508 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FDF53B3-85FA-394E-EB80-522E7389AF4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8362950" y="1000125"/>
+          <a:ext cx="152400" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2A319F-39A1-9E72-C1E3-9AC212BE0E92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8362950" y="1200150"/>
+          <a:ext cx="504825" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F642C0-A059-E87C-425E-B9ACD603F1AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8362950" y="1400175"/>
+          <a:ext cx="552450" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A663DD1-93D6-690A-CBA4-8A7F09BD92D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8362950" y="1600200"/>
+          <a:ext cx="447675" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C63A139F-B5CE-697A-1890-3B65FD1FDA5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8362950" y="1800225"/>
+          <a:ext cx="352425" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{192CD352-6BE3-21C3-765D-2B12163E27AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8362950" y="2000250"/>
+          <a:ext cx="485775" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50393209-6386-F051-F7CD-8485CDF10931}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8347927" y="2214756"/>
+          <a:ext cx="485775" cy="201342"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBCB166-24E0-4937-BAE4-F91F9611A116}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -467,73 +1001,161 @@
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="49.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="8" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="16.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="H5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>0.12609999999999999</v>
       </c>
+      <c r="H6"/>
+      <c r="I6" s="4">
+        <v>0.25362000000000001</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="5">
         <v>8.5599999999999996E-2</v>
       </c>
+      <c r="H7"/>
+      <c r="I7" s="4">
+        <v>0.32441999999999999</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>4.9099999999999998E-2</v>
       </c>
+      <c r="H8"/>
+      <c r="I8" s="4">
+        <v>0.23882</v>
+      </c>
+      <c r="J8" s="4">
+        <v>3.4299999999999999E-4</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H9"/>
+      <c r="I9" s="4">
+        <v>-2.4479999999999998E-2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.15731999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H10"/>
+      <c r="I10" s="4">
+        <v>0.10405</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.21184700000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H11"/>
+      <c r="I11" s="4">
+        <v>-0.24937999999999999</v>
+      </c>
+      <c r="J11" s="4">
+        <v>5.0215999999999997E-2</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H12" s="11"/>
+      <c r="I12" s="6">
+        <v>-9.3950000000000006E-2</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.32855099999999998</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E3"/>
+    <mergeCell ref="H1:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Trabajo de graduación/Tablas/Tablas.xlsx
+++ b/Trabajo de graduación/Tablas/Tablas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\PES\Para la tesis\Tesis\Pass through\Trabajo de graduación\Tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC937A9-4183-4406-8473-2BACBBAA0FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A692A80-8C1F-4939-A7F6-E15AE5080C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF951696-837C-4D09-81A9-6DFEDF2BBBF6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Esquema de política monetaria</t>
   </si>
@@ -71,13 +71,43 @@
   </si>
   <si>
     <t>3.02x10^-10</t>
+  </si>
+  <si>
+    <t>Estimación del efecto pass-through</t>
+  </si>
+  <si>
+    <t>Regímen</t>
+  </si>
+  <si>
+    <t>Interacción</t>
+  </si>
+  <si>
+    <t>Pass-through</t>
+  </si>
+  <si>
+    <t>Inflación baja</t>
+  </si>
+  <si>
+    <t>Inflación media</t>
+  </si>
+  <si>
+    <t>Inflación alta</t>
+  </si>
+  <si>
+    <t>Covarianzas y varianzas en los distintos régimenes inflacionarios</t>
+  </si>
+  <si>
+    <t>Covarianza entre tipo de cambio y precios</t>
+  </si>
+  <si>
+    <t>Varianza del tipo de cambio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +130,18 @@
     </font>
     <font>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -145,14 +187,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,6 +213,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,6 +725,219 @@
         <a:xfrm>
           <a:off x="8347927" y="2214756"/>
           <a:ext cx="485775" cy="201342"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6AE08B1-F482-88E4-39F4-E6ADCFC43F00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16316325" y="1000125"/>
+          <a:ext cx="142875" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0F0578C-891F-9097-989E-085AEBE2335D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16316325" y="1200150"/>
+          <a:ext cx="476250" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{246937BA-A3FE-5626-10FE-5126FBEA88EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="16316325" y="1400175"/>
+          <a:ext cx="466725" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -990,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBCB166-24E0-4937-BAE4-F91F9611A116}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="123" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5:W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1001,159 +1267,271 @@
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="49.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="11.42578125" style="1"/>
+    <col min="4" max="5" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="4" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1"/>
     <col min="9" max="9" width="16.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="11" max="12" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="3.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="11.42578125" style="1"/>
+    <col min="21" max="21" width="36.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="O1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="U1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+    <row r="2" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+    <row r="3" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="O5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="V5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="W5" s="15" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.12609999999999999</v>
       </c>
       <c r="H6"/>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>0.25362000000000001</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="O6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6"/>
+      <c r="Q6" s="11">
+        <v>0.10405</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="3">
+        <v>2.18614E-2</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.6030626</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>8.5599999999999996E-2</v>
       </c>
       <c r="H7"/>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>0.32441999999999999</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="O7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7"/>
+      <c r="Q7" s="1">
+        <v>1.01E-2</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V7" s="3">
+        <v>-2.8357E-3</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0.42301149999999998</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>4.9099999999999998E-2</v>
       </c>
       <c r="H8"/>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>0.23882</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>3.4299999999999999E-4</v>
       </c>
+      <c r="O8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="12">
+        <v>-0.14532999999999999</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="V8" s="5">
+        <v>-3.1564300000000003E-2</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0.37417800000000001</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H9"/>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>-2.4479999999999998E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>0.15731999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H10"/>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>0.10405</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>0.21184700000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H11"/>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>-0.24937999999999999</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>5.0215999999999997E-2</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H12" s="11"/>
-      <c r="I12" s="6">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="H12" s="10"/>
+      <c r="I12" s="5">
         <v>-9.3950000000000006E-2</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <v>0.32855099999999998</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:E3"/>
     <mergeCell ref="H1:L3"/>
+    <mergeCell ref="O1:S3"/>
+    <mergeCell ref="U1:X3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
